--- a/docs/unit1/03_darcy_layered/twosoils.xlsx
+++ b/docs/unit1/03_darcy_layered/twosoils.xlsx
@@ -1,46 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/My Drive (njones61@gmail.com)/work - byu/courses/CE 544/exercises/3. darcy's law - layered systems, 2d/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/My Drive (njones61@gmail.com)/work - byu/courses/CE 544/exercises/3. darcy's law, layered/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BBD433-738A-DC48-A3E0-592E97CDA38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6154DD2-96C7-BE47-910A-86CC5EDB081E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16560" yWindow="5580" windowWidth="26620" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25140" yWindow="4000" windowWidth="26620" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="dh">Sheet1!$B$12</definedName>
-    <definedName name="dhA">Sheet1!$B$17</definedName>
-    <definedName name="dhB">Sheet1!$B$18</definedName>
-    <definedName name="dl">Sheet1!$B$13</definedName>
-    <definedName name="dx">Sheet1!#REF!</definedName>
-    <definedName name="dxA">Sheet1!$D$9</definedName>
-    <definedName name="dxB">Sheet1!$D$10</definedName>
-    <definedName name="dy">Sheet1!#REF!</definedName>
-    <definedName name="gw">Sheet1!$B$19</definedName>
-    <definedName name="hA">Sheet1!$B$22</definedName>
-    <definedName name="hB">Sheet1!$B$23</definedName>
-    <definedName name="hC">Sheet1!$B$24</definedName>
-    <definedName name="hD">Sheet1!$B$25</definedName>
-    <definedName name="i">Sheet1!$B$14</definedName>
-    <definedName name="kA">Sheet1!$C$9</definedName>
-    <definedName name="kB">Sheet1!$C$10</definedName>
-    <definedName name="keq">Sheet1!$B$15</definedName>
-    <definedName name="Kh">Sheet1!#REF!</definedName>
-    <definedName name="Kv">Sheet1!#REF!</definedName>
-    <definedName name="Qh">Sheet1!#REF!</definedName>
-    <definedName name="Qv">Sheet1!#REF!</definedName>
-    <definedName name="v">Sheet1!$B$16</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -411,6 +387,122 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>752231</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>117231</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>31262</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>23446</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F502745A-3A91-DC1B-F773-EF698D108A4F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>9769</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>109416</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>315545</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>165101</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81FF1809-9CE3-35DF-E994-5AED39FBCFBF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="black">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -700,11 +792,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -925,6 +1017,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="1025" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>749300</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>25400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>25400</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="1025" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="1026" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>12700</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>317500</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>165100</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="1026" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
